--- a/Examples/cogen/cogen_model.xlsx
+++ b/Examples/cogen/cogen_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\cogen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA333E48-5C16-4FEF-AC2A-E33A981E94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BB598-7B08-4B75-99AD-7939BA4F385F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$14</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$6</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$6</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
     <definedName name="tgas_zval" localSheetId="6">ResourcesCost!$A$3:$C$6</definedName>
@@ -933,19 +933,19 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -979,7 +979,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1013,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -1030,7 +1030,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1047,7 +1047,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1059,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E6</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1321,7 +1321,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
